--- a/sputnik/personal/ee/219ee.xlsx
+++ b/sputnik/personal/ee/219ee.xlsx
@@ -16,23 +16,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -40,6 +31,24 @@
   </si>
   <si>
     <t xml:space="preserve">кВт/ч к оплате </t>
+  </si>
+  <si>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
+  </si>
+  <si>
+    <t>остаток</t>
   </si>
 </sst>
 </file>
@@ -47,9 +56,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,14 +81,6 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -89,7 +90,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -112,42 +113,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -157,7 +129,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -166,36 +138,10 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -503,10 +449,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -517,275 +463,112 @@
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="13" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>4</v>
+      <c r="H1" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>43246</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>43376</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
-        <v>17337</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="C2" s="2">
+        <v>18396</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>43316</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>43745</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5">
-        <v>18296</v>
-      </c>
-      <c r="D3" s="5">
+      <c r="C3" s="2">
+        <v>18810</v>
+      </c>
+      <c r="D3" s="4">
         <f>SUM(C3,-C2)</f>
-        <v>959</v>
-      </c>
-      <c r="E3" s="20">
-        <v>4.5</v>
-      </c>
-      <c r="F3" s="20">
+        <v>414</v>
+      </c>
+      <c r="E3" s="8">
+        <v>4.49</v>
+      </c>
+      <c r="F3" s="8">
         <f>PRODUCT(D3,E3)</f>
-        <v>4315.5</v>
+        <v>1858.8600000000001</v>
+      </c>
+      <c r="G3" s="9">
+        <v>1858.86</v>
+      </c>
+      <c r="H3" s="9">
+        <v>1891.98</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>43376</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3">
-        <v>18396</v>
-      </c>
-      <c r="D4" s="5">
-        <f>SUM(C4,-C3)</f>
-        <v>100</v>
-      </c>
-      <c r="E4" s="20">
-        <v>4.5</v>
-      </c>
-      <c r="F4" s="20">
-        <f>PRODUCT(D4,E4)</f>
-        <v>450</v>
+      <c r="A4" s="3"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="9">
+        <v>1858.86</v>
+      </c>
+      <c r="H4" s="9">
+        <v>1891.98</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>43745</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3">
-        <v>18810</v>
-      </c>
-      <c r="D5" s="5">
-        <f>SUM(C5,-C4)</f>
-        <v>414</v>
-      </c>
-      <c r="E5" s="20">
-        <v>4.49</v>
-      </c>
-      <c r="F5" s="20">
-        <f>PRODUCT(D5,E5)</f>
-        <v>1858.8600000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="6"/>
-      <c r="H9" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="16"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="13"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9">
+        <f>SUM(H4,-G4)</f>
+        <v>33.120000000000118</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/219ee.xlsx
+++ b/sputnik/personal/ee/219ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>оплачено</t>
-  </si>
-  <si>
-    <t>итого за период</t>
   </si>
   <si>
     <t>остаток</t>
@@ -117,7 +114,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -134,9 +131,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -452,7 +446,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -506,10 +500,10 @@
         <v>18396</v>
       </c>
       <c r="D2" s="4"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -525,34 +519,46 @@
         <f>SUM(C3,-C2)</f>
         <v>414</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <v>4.49</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="7">
         <f>PRODUCT(D3,E3)</f>
         <v>1858.8600000000001</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="8">
         <v>1858.86</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="8">
         <v>1891.98</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="9">
-        <v>1858.86</v>
-      </c>
-      <c r="H4" s="9">
-        <v>1891.98</v>
+      <c r="A4" s="3">
+        <v>44020</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>19840</v>
+      </c>
+      <c r="D4" s="2">
+        <f>SUM(C4,-C3)</f>
+        <v>1030</v>
+      </c>
+      <c r="E4" s="7">
+        <v>4.49</v>
+      </c>
+      <c r="F4" s="5">
+        <f>PRODUCT(D4,E4)</f>
+        <v>4624.7</v>
+      </c>
+      <c r="G4" s="8">
+        <v>4624.7</v>
+      </c>
+      <c r="H4" s="8">
+        <v>4624.7</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -562,12 +568,12 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9">
+        <v>9</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8">
         <f>SUM(H4,-G4)</f>
-        <v>33.120000000000118</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/219ee.xlsx
+++ b/sputnik/personal/ee/219ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -443,10 +443,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -562,16 +562,44 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="5" t="s">
+      <c r="A5" s="3">
+        <v>44120</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>20240</v>
+      </c>
+      <c r="D5" s="2">
+        <f>SUM(C5,-C4)</f>
+        <v>400</v>
+      </c>
+      <c r="E5" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F5" s="5">
+        <f>PRODUCT(D5,E5)</f>
+        <v>1884</v>
+      </c>
+      <c r="G5" s="8">
+        <v>1884</v>
+      </c>
+      <c r="H5" s="8">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8">
+      <c r="G6" s="8"/>
+      <c r="H6" s="8">
         <f>SUM(H4,-G4)</f>
         <v>0</v>
       </c>

--- a/sputnik/personal/ee/219ee.xlsx
+++ b/sputnik/personal/ee/219ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -443,10 +443,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -590,16 +590,44 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="5" t="s">
+      <c r="A6" s="3">
+        <v>44300</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>20435</v>
+      </c>
+      <c r="D6" s="2">
+        <f>SUM(C6,-C5)</f>
+        <v>195</v>
+      </c>
+      <c r="E6" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F6" s="5">
+        <f>PRODUCT(D6,E6)</f>
+        <v>918.45</v>
+      </c>
+      <c r="G6" s="8">
+        <v>918.45</v>
+      </c>
+      <c r="H6" s="8">
+        <v>918.45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8">
+      <c r="G7" s="8"/>
+      <c r="H7" s="8">
         <f>SUM(H4,-G4)</f>
         <v>0</v>
       </c>

--- a/sputnik/personal/ee/219ee.xlsx
+++ b/sputnik/personal/ee/219ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -443,10 +443,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -618,16 +618,44 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="5" t="s">
+      <c r="A7" s="3">
+        <v>44343</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>20630</v>
+      </c>
+      <c r="D7" s="2">
+        <f>SUM(C7,-C6)</f>
+        <v>195</v>
+      </c>
+      <c r="E7" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F7" s="5">
+        <f>PRODUCT(D7,E7)</f>
+        <v>918.45</v>
+      </c>
+      <c r="G7" s="8">
+        <v>918.45</v>
+      </c>
+      <c r="H7" s="8">
+        <v>918.45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8">
+      <c r="G8" s="8"/>
+      <c r="H8" s="8">
         <f>SUM(H4,-G4)</f>
         <v>0</v>
       </c>

--- a/sputnik/personal/ee/219ee.xlsx
+++ b/sputnik/personal/ee/219ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -443,10 +443,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -646,16 +646,44 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="5" t="s">
+      <c r="A8" s="3">
+        <v>44375</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>20850</v>
+      </c>
+      <c r="D8" s="2">
+        <f>SUM(C8,-C7)</f>
+        <v>220</v>
+      </c>
+      <c r="E8" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="F8" s="5">
+        <f>PRODUCT(D8,E8)</f>
+        <v>1036.2</v>
+      </c>
+      <c r="G8" s="8">
+        <v>1036.2</v>
+      </c>
+      <c r="H8" s="8">
+        <v>1036.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8">
+      <c r="G9" s="8"/>
+      <c r="H9" s="8">
         <f>SUM(H4,-G4)</f>
         <v>0</v>
       </c>

--- a/sputnik/personal/ee/219ee.xlsx
+++ b/sputnik/personal/ee/219ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -443,10 +443,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -516,14 +516,14 @@
         <v>18810</v>
       </c>
       <c r="D3" s="4">
-        <f>SUM(C3,-C2)</f>
+        <f t="shared" ref="D3:D10" si="0">SUM(C3,-C2)</f>
         <v>414</v>
       </c>
       <c r="E3" s="7">
         <v>4.49</v>
       </c>
       <c r="F3" s="7">
-        <f>PRODUCT(D3,E3)</f>
+        <f t="shared" ref="F3:F8" si="1">PRODUCT(D3,E3)</f>
         <v>1858.8600000000001</v>
       </c>
       <c r="G3" s="8">
@@ -544,14 +544,14 @@
         <v>19840</v>
       </c>
       <c r="D4" s="2">
-        <f>SUM(C4,-C3)</f>
+        <f t="shared" si="0"/>
         <v>1030</v>
       </c>
       <c r="E4" s="7">
         <v>4.49</v>
       </c>
       <c r="F4" s="5">
-        <f>PRODUCT(D4,E4)</f>
+        <f t="shared" si="1"/>
         <v>4624.7</v>
       </c>
       <c r="G4" s="8">
@@ -572,14 +572,14 @@
         <v>20240</v>
       </c>
       <c r="D5" s="2">
-        <f>SUM(C5,-C4)</f>
+        <f t="shared" si="0"/>
         <v>400</v>
       </c>
       <c r="E5" s="7">
         <v>4.71</v>
       </c>
       <c r="F5" s="5">
-        <f>PRODUCT(D5,E5)</f>
+        <f t="shared" si="1"/>
         <v>1884</v>
       </c>
       <c r="G5" s="8">
@@ -600,14 +600,14 @@
         <v>20435</v>
       </c>
       <c r="D6" s="2">
-        <f>SUM(C6,-C5)</f>
+        <f t="shared" si="0"/>
         <v>195</v>
       </c>
       <c r="E6" s="7">
         <v>4.71</v>
       </c>
       <c r="F6" s="5">
-        <f>PRODUCT(D6,E6)</f>
+        <f t="shared" si="1"/>
         <v>918.45</v>
       </c>
       <c r="G6" s="8">
@@ -628,14 +628,14 @@
         <v>20630</v>
       </c>
       <c r="D7" s="2">
-        <f>SUM(C7,-C6)</f>
+        <f t="shared" si="0"/>
         <v>195</v>
       </c>
       <c r="E7" s="7">
         <v>4.71</v>
       </c>
       <c r="F7" s="5">
-        <f>PRODUCT(D7,E7)</f>
+        <f t="shared" si="1"/>
         <v>918.45</v>
       </c>
       <c r="G7" s="8">
@@ -656,14 +656,14 @@
         <v>20850</v>
       </c>
       <c r="D8" s="2">
-        <f>SUM(C8,-C7)</f>
+        <f t="shared" si="0"/>
         <v>220</v>
       </c>
       <c r="E8" s="7">
         <v>4.71</v>
       </c>
       <c r="F8" s="5">
-        <f>PRODUCT(D8,E8)</f>
+        <f t="shared" si="1"/>
         <v>1036.2</v>
       </c>
       <c r="G8" s="8">
@@ -674,16 +674,72 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="5" t="s">
+      <c r="A9" s="3">
+        <v>44404</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>21000</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="E9" s="7">
+        <v>4.96</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" ref="F9" si="2">PRODUCT(D9,E9)</f>
+        <v>744</v>
+      </c>
+      <c r="G9" s="8">
+        <v>744</v>
+      </c>
+      <c r="H9" s="8">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>44435</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>21120</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="E10" s="7">
+        <v>4.96</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" ref="F10" si="3">PRODUCT(D10,E10)</f>
+        <v>595.20000000000005</v>
+      </c>
+      <c r="G10" s="8">
+        <v>595.20000000000005</v>
+      </c>
+      <c r="H10" s="8">
+        <v>595.20000000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8">
+      <c r="G11" s="8"/>
+      <c r="H11" s="8">
         <f>SUM(H4,-G4)</f>
         <v>0</v>
       </c>

--- a/sputnik/personal/ee/219ee.xlsx
+++ b/sputnik/personal/ee/219ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -443,10 +443,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -730,16 +730,44 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="5" t="s">
+      <c r="A11" s="3">
+        <v>44467</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>21310</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" ref="D11" si="4">SUM(C11,-C10)</f>
+        <v>190</v>
+      </c>
+      <c r="E11" s="7">
+        <v>4.96</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" ref="F11" si="5">PRODUCT(D11,E11)</f>
+        <v>942.4</v>
+      </c>
+      <c r="G11" s="8">
+        <v>942.4</v>
+      </c>
+      <c r="H11" s="8">
+        <v>942.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8">
+      <c r="G12" s="8"/>
+      <c r="H12" s="8">
         <f>SUM(H4,-G4)</f>
         <v>0</v>
       </c>

--- a/sputnik/personal/ee/219ee.xlsx
+++ b/sputnik/personal/ee/219ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>Т1</t>
   </si>
@@ -79,12 +79,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -114,7 +120,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -136,6 +142,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -443,10 +452,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -719,7 +728,7 @@
         <v>4.96</v>
       </c>
       <c r="F10" s="5">
-        <f t="shared" ref="F10" si="3">PRODUCT(D10,E10)</f>
+        <f t="shared" ref="F10:F11" si="3">PRODUCT(D10,E10)</f>
         <v>595.20000000000005</v>
       </c>
       <c r="G10" s="8">
@@ -730,7 +739,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="9">
         <v>44467</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -740,15 +749,15 @@
         <v>21310</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" ref="D11" si="4">SUM(C11,-C10)</f>
-        <v>190</v>
+        <f>SUM(C11,-C9)</f>
+        <v>310</v>
       </c>
       <c r="E11" s="7">
         <v>4.96</v>
       </c>
       <c r="F11" s="5">
-        <f t="shared" ref="F11" si="5">PRODUCT(D11,E11)</f>
-        <v>942.4</v>
+        <f t="shared" si="3"/>
+        <v>1537.6</v>
       </c>
       <c r="G11" s="8">
         <v>942.4</v>
@@ -758,16 +767,60 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="5" t="s">
+      <c r="A12" s="9">
+        <v>44512</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>21460</v>
+      </c>
+      <c r="D12" s="2">
+        <f>SUM(C12,-C11)</f>
+        <v>150</v>
+      </c>
+      <c r="E12" s="7">
+        <v>4.96</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" ref="F12" si="4">PRODUCT(D12,E12)</f>
+        <v>744</v>
+      </c>
+      <c r="G12" s="8">
+        <v>744</v>
+      </c>
+      <c r="H12" s="8">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="8">
+        <f>SUM(G3:G12)</f>
+        <v>14266.260000000002</v>
+      </c>
+      <c r="H13" s="8">
+        <f>SUM(H3:H12)</f>
+        <v>14299.380000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8">
+      <c r="G14" s="8"/>
+      <c r="H14" s="8">
         <f>SUM(H4,-G4)</f>
         <v>0</v>
       </c>
